--- a/data/antconcdata.xlsx
+++ b/data/antconcdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162780E-4101-43DA-91BF-C0686D4CEB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2BB541-BD6A-4744-951A-EB22B73B8AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CABC1E0-8283-437E-AB3F-20B8050DBFB6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Album</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Rough and Rowdy Ways</t>
+  </si>
+  <si>
+    <t>Avg. Song Length</t>
   </si>
 </sst>
 </file>
@@ -138,8 +141,10 @@
     <sheetNames>
       <sheetName val="pivot"/>
       <sheetName val="fulldata"/>
-      <sheetName val="format"/>
-      <sheetName val="genre"/>
+      <sheetName val="formatearly"/>
+      <sheetName val="formatlate"/>
+      <sheetName val="genreearly"/>
+      <sheetName val="genrelate"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2048,19 +2053,11 @@
             <v>10</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="R35">
-            <v>359</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="R36">
-            <v>10.878787880000001</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2383,18 +2380,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFB4D0-3B72-4C96-A0A2-7C9281AC0BEC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2407,8 +2408,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2423,8 +2427,24 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>50.04</v>
       </c>
+      <c r="G2">
+        <f>B2/C2</f>
+        <v>5.9230769230769234</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(G2:G5)</f>
+        <v>6.2835470085470089</v>
+      </c>
+      <c r="K2">
+        <f>D2/C2</f>
+        <v>3.8492307692307692</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(K2:K5)</f>
+        <v>4.9547521367521368</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2439,8 +2459,24 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>51.26</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">B3/C3</f>
+        <v>5.8888888888888893</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(G6:G9)</f>
+        <v>6.1869318181818178</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="1">D3/C3</f>
+        <v>5.695555555555555</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(K6:K9)</f>
+        <v>5.8554147727272721</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2455,8 +2491,16 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>51.42</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>5.1420000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2471,8 +2515,16 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>46.19</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>5.1322222222222216</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2487,8 +2539,16 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>41.39</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.375</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>5.1737500000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2503,8 +2563,16 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>46.24</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>4.6240000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2519,8 +2587,16 @@
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>72.5</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>6.5909090909090908</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2534,6 +2610,14 @@
       <c r="D9">
         <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
         <v>70.33</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>7.0329999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/data/antconcdata.xlsx
+++ b/data/antconcdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2BB541-BD6A-4744-951A-EB22B73B8AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44DDB4A-4DC8-422F-A2E4-7E5D33661306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CABC1E0-8283-437E-AB3F-20B8050DBFB6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Album</t>
   </si>
@@ -79,6 +79,18 @@
   <si>
     <t>Avg. Song Length</t>
   </si>
+  <si>
+    <t>Avg. Verses</t>
+  </si>
+  <si>
+    <t>Early Dylan</t>
+  </si>
+  <si>
+    <t>Late Dylan</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,12 +121,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,16 +290,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="pivot"/>
       <sheetName val="fulldata"/>
-      <sheetName val="formatearly"/>
-      <sheetName val="formatlate"/>
-      <sheetName val="genreearly"/>
-      <sheetName val="genrelate"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
             <v>Album</v>
@@ -160,19 +305,19 @@
             <v>Period</v>
           </cell>
           <cell r="D1" t="str">
+            <v>AlbumType</v>
+          </cell>
+          <cell r="E1" t="str">
             <v>Format</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="F1" t="str">
             <v>Format 2</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="G1" t="str">
             <v>Format 3</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="H1" t="str">
             <v>Length</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Genre</v>
           </cell>
           <cell r="I1" t="str">
             <v>Genre</v>
@@ -187,21 +332,24 @@
             <v>Genre</v>
           </cell>
           <cell r="M1" t="str">
+            <v>Genre</v>
+          </cell>
+          <cell r="N1" t="str">
             <v>Instrument 1</v>
           </cell>
-          <cell r="N1" t="str">
+          <cell r="O1" t="str">
             <v>Instrument 2</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="P1" t="str">
             <v>Instrument 3</v>
           </cell>
-          <cell r="P1" t="str">
+          <cell r="Q1" t="str">
             <v>Instrument 4</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="R1" t="str">
             <v>Instrument 5</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="S1" t="str">
             <v>Track Count</v>
           </cell>
         </row>
@@ -216,26 +364,26 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D2" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E2" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F2" t="str">
             <v>None</v>
           </cell>
-          <cell r="G2">
+          <cell r="G2" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H2">
             <v>36.54</v>
           </cell>
-          <cell r="H2" t="str">
+          <cell r="I2" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I2" t="str">
+          <cell r="J2" t="str">
             <v>country blues</v>
           </cell>
-          <cell r="J2" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K2" t="str">
             <v>None</v>
           </cell>
@@ -243,21 +391,24 @@
             <v>None</v>
           </cell>
           <cell r="M2" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N2" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O2" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O2" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P2" t="str">
             <v>None</v>
           </cell>
           <cell r="Q2" t="str">
             <v>None</v>
           </cell>
-          <cell r="R2">
+          <cell r="R2" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S2">
             <v>13</v>
           </cell>
         </row>
@@ -272,26 +423,26 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D3" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E3" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F3" t="str">
             <v>None</v>
           </cell>
-          <cell r="G3">
+          <cell r="G3" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H3">
             <v>50.04</v>
           </cell>
-          <cell r="H3" t="str">
+          <cell r="I3" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I3" t="str">
+          <cell r="J3" t="str">
             <v>blues</v>
           </cell>
-          <cell r="J3" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K3" t="str">
             <v>None</v>
           </cell>
@@ -299,21 +450,24 @@
             <v>None</v>
           </cell>
           <cell r="M3" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N3" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O3" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O3" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P3" t="str">
             <v>None</v>
           </cell>
           <cell r="Q3" t="str">
             <v>None</v>
           </cell>
-          <cell r="R3">
+          <cell r="R3" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S3">
             <v>13</v>
           </cell>
         </row>
@@ -328,23 +482,23 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D4" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E4" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F4" t="str">
             <v>None</v>
           </cell>
-          <cell r="G4">
+          <cell r="G4" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H4">
             <v>45.36</v>
           </cell>
-          <cell r="H4" t="str">
+          <cell r="I4" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I4" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J4" t="str">
             <v>None</v>
           </cell>
@@ -355,21 +509,24 @@
             <v>None</v>
           </cell>
           <cell r="M4" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N4" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O4" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O4" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P4" t="str">
             <v>None</v>
           </cell>
           <cell r="Q4" t="str">
             <v>None</v>
           </cell>
-          <cell r="R4">
+          <cell r="R4" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S4">
             <v>10</v>
           </cell>
         </row>
@@ -384,23 +541,23 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D5" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E5" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F5" t="str">
             <v>None</v>
           </cell>
-          <cell r="G5">
+          <cell r="G5" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H5">
             <v>50.37</v>
           </cell>
-          <cell r="H5" t="str">
+          <cell r="I5" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I5" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J5" t="str">
             <v>None</v>
           </cell>
@@ -411,21 +568,24 @@
             <v>None</v>
           </cell>
           <cell r="M5" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N5" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O5" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O5" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P5" t="str">
             <v>None</v>
           </cell>
           <cell r="Q5" t="str">
             <v>None</v>
           </cell>
-          <cell r="R5">
+          <cell r="R5" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S5">
             <v>11</v>
           </cell>
         </row>
@@ -440,48 +600,51 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D6" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E6" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F6" t="str">
             <v>None</v>
           </cell>
-          <cell r="G6">
+          <cell r="G6" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H6">
             <v>47.21</v>
           </cell>
-          <cell r="H6" t="str">
+          <cell r="I6" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I6" t="str">
+          <cell r="J6" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="J6" t="str">
+          <cell r="K6" t="str">
             <v>blues</v>
           </cell>
-          <cell r="K6" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L6" t="str">
             <v>None</v>
           </cell>
           <cell r="M6" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N6" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O6" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O6" t="str">
+          <cell r="P6" t="str">
             <v>Keyboards</v>
           </cell>
-          <cell r="P6" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q6" t="str">
             <v>None</v>
           </cell>
-          <cell r="R6">
+          <cell r="R6" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S6">
             <v>11</v>
           </cell>
         </row>
@@ -496,48 +659,51 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D7" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E7" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F7" t="str">
             <v>None</v>
           </cell>
-          <cell r="G7">
+          <cell r="G7" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H7">
             <v>51.26</v>
           </cell>
-          <cell r="H7" t="str">
+          <cell r="I7" t="str">
             <v xml:space="preserve"> folk rock</v>
           </cell>
-          <cell r="I7" t="str">
+          <cell r="J7" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="J7" t="str">
+          <cell r="K7" t="str">
             <v>rock and roll</v>
           </cell>
-          <cell r="K7" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L7" t="str">
             <v>None</v>
           </cell>
           <cell r="M7" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N7" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O7" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O7" t="str">
+          <cell r="P7" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P7" t="str">
+          <cell r="Q7" t="str">
             <v>Slide Whistle</v>
           </cell>
-          <cell r="Q7" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="R7">
+          <cell r="R7" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S7">
             <v>9</v>
           </cell>
         </row>
@@ -552,48 +718,51 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D8" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E8" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F8" t="str">
             <v>None</v>
           </cell>
-          <cell r="G8">
+          <cell r="G8" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H8">
             <v>72.569999999999993</v>
           </cell>
-          <cell r="H8" t="str">
+          <cell r="I8" t="str">
             <v xml:space="preserve"> folk rock</v>
           </cell>
-          <cell r="I8" t="str">
+          <cell r="J8" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="J8" t="str">
+          <cell r="K8" t="str">
             <v>country rock</v>
           </cell>
-          <cell r="K8" t="str">
+          <cell r="L8" t="str">
             <v>rock and roll</v>
           </cell>
-          <cell r="L8" t="str">
-            <v>None</v>
-          </cell>
           <cell r="M8" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N8" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O8" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O8" t="str">
+          <cell r="P8" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P8" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q8" t="str">
             <v>None</v>
           </cell>
-          <cell r="R8">
+          <cell r="R8" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S8">
             <v>14</v>
           </cell>
         </row>
@@ -608,48 +777,51 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D9" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E9" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F9" t="str">
             <v>None</v>
           </cell>
-          <cell r="G9">
+          <cell r="G9" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H9">
             <v>38.24</v>
           </cell>
-          <cell r="H9" t="str">
+          <cell r="I9" t="str">
             <v xml:space="preserve"> folk rock</v>
           </cell>
-          <cell r="I9" t="str">
+          <cell r="J9" t="str">
             <v>country rock</v>
           </cell>
-          <cell r="J9" t="str">
+          <cell r="K9" t="str">
             <v>roots rock</v>
           </cell>
-          <cell r="K9" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L9" t="str">
             <v>None</v>
           </cell>
           <cell r="M9" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N9" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O9" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O9" t="str">
+          <cell r="P9" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P9" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q9" t="str">
             <v>None</v>
           </cell>
-          <cell r="R9">
+          <cell r="R9" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S9">
             <v>12</v>
           </cell>
         </row>
@@ -664,26 +836,26 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D10" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E10" t="str">
-            <v>None</v>
+            <v>vinyl</v>
           </cell>
           <cell r="F10" t="str">
             <v>None</v>
           </cell>
-          <cell r="G10">
+          <cell r="G10" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H10">
             <v>27.14</v>
           </cell>
-          <cell r="H10" t="str">
+          <cell r="I10" t="str">
             <v>country rock</v>
           </cell>
-          <cell r="I10" t="str">
+          <cell r="J10" t="str">
             <v>country</v>
           </cell>
-          <cell r="J10" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K10" t="str">
             <v>None</v>
           </cell>
@@ -691,21 +863,24 @@
             <v>None</v>
           </cell>
           <cell r="M10" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N10" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O10" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O10" t="str">
+          <cell r="P10" t="str">
             <v>Keyboards</v>
           </cell>
-          <cell r="P10" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q10" t="str">
             <v>None</v>
           </cell>
-          <cell r="R10">
+          <cell r="R10" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S10">
             <v>10</v>
           </cell>
         </row>
@@ -720,48 +895,51 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D11" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E11" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F11" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F11" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G11">
+          <cell r="G11" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H11">
             <v>73.150000000000006</v>
           </cell>
-          <cell r="H11" t="str">
+          <cell r="I11" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="I11" t="str">
+          <cell r="J11" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="J11" t="str">
+          <cell r="K11" t="str">
             <v>country rock</v>
           </cell>
-          <cell r="K11" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L11" t="str">
             <v>None</v>
           </cell>
           <cell r="M11" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N11" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O11" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O11" t="str">
+          <cell r="P11" t="str">
             <v>Keyboards</v>
           </cell>
-          <cell r="P11" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q11" t="str">
             <v>None</v>
           </cell>
-          <cell r="R11">
+          <cell r="R11" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S11">
             <v>24</v>
           </cell>
         </row>
@@ -776,26 +954,26 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D12" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E12" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F12" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F12" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G12">
+          <cell r="G12" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H12">
             <v>35.21</v>
           </cell>
-          <cell r="H12" t="str">
+          <cell r="I12" t="str">
             <v xml:space="preserve"> folk rock</v>
           </cell>
-          <cell r="I12" t="str">
+          <cell r="J12" t="str">
             <v>country rock</v>
           </cell>
-          <cell r="J12" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K12" t="str">
             <v>None</v>
           </cell>
@@ -803,21 +981,24 @@
             <v>None</v>
           </cell>
           <cell r="M12" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="N12" t="str">
             <v>Acoustic Guitar</v>
           </cell>
-          <cell r="N12" t="str">
+          <cell r="O12" t="str">
             <v>Electric Guitar</v>
           </cell>
-          <cell r="O12" t="str">
+          <cell r="P12" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P12" t="str">
+          <cell r="Q12" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="Q12" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="R12">
+          <cell r="R12" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S12">
             <v>12</v>
           </cell>
         </row>
@@ -832,48 +1013,51 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D13" t="str">
-            <v>vinyl</v>
+            <v>comp</v>
           </cell>
           <cell r="E13" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F13" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F13" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G13">
+          <cell r="G13" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H13">
             <v>35.229999999999997</v>
           </cell>
-          <cell r="H13" t="str">
+          <cell r="I13" t="str">
             <v xml:space="preserve"> folk rock</v>
           </cell>
-          <cell r="I13" t="str">
+          <cell r="J13" t="str">
             <v>country rock</v>
           </cell>
-          <cell r="J13" t="str">
+          <cell r="K13" t="str">
             <v>soundtrack</v>
           </cell>
-          <cell r="K13" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L13" t="str">
             <v>None</v>
           </cell>
           <cell r="M13" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N13" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O13" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O13" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P13" t="str">
             <v>None</v>
           </cell>
           <cell r="Q13" t="str">
             <v>None</v>
           </cell>
-          <cell r="R13">
+          <cell r="R13" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S13">
             <v>11</v>
           </cell>
         </row>
@@ -888,23 +1072,23 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D14" t="str">
-            <v>vinyl</v>
+            <v>live</v>
           </cell>
           <cell r="E14" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F14" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F14" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G14">
+          <cell r="G14" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H14">
             <v>42.12</v>
           </cell>
-          <cell r="H14" t="str">
+          <cell r="I14" t="str">
             <v>roots rock</v>
           </cell>
-          <cell r="I14" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J14" t="str">
             <v>None</v>
           </cell>
@@ -915,21 +1099,24 @@
             <v>None</v>
           </cell>
           <cell r="M14" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N14" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O14" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O14" t="str">
+          <cell r="P14" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P14" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q14" t="str">
             <v>None</v>
           </cell>
-          <cell r="R14">
+          <cell r="R14" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S14">
             <v>11</v>
           </cell>
         </row>
@@ -944,26 +1131,26 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D15" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E15" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F15" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F15" t="str">
+          <cell r="G15" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="G15">
+          <cell r="H15">
             <v>51.42</v>
           </cell>
-          <cell r="H15" t="str">
+          <cell r="I15" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I15" t="str">
+          <cell r="J15" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="J15" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K15" t="str">
             <v>None</v>
           </cell>
@@ -971,21 +1158,24 @@
             <v>None</v>
           </cell>
           <cell r="M15" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N15" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O15" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O15" t="str">
+          <cell r="P15" t="str">
             <v>Organ</v>
           </cell>
-          <cell r="P15" t="str">
+          <cell r="Q15" t="str">
             <v>Mandolin</v>
           </cell>
-          <cell r="Q15" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="R15">
+          <cell r="R15" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S15">
             <v>10</v>
           </cell>
         </row>
@@ -1000,23 +1190,23 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D16" t="str">
-            <v>vinyl</v>
+            <v>live</v>
           </cell>
           <cell r="E16" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F16" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F16" t="str">
+          <cell r="G16" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="G16">
+          <cell r="H16">
             <v>56.13</v>
           </cell>
-          <cell r="H16" t="str">
+          <cell r="I16" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="I16" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J16" t="str">
             <v>None</v>
           </cell>
@@ -1027,21 +1217,24 @@
             <v>None</v>
           </cell>
           <cell r="M16" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N16" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O16" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O16" t="str">
+          <cell r="P16" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P16" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q16" t="str">
             <v>None</v>
           </cell>
-          <cell r="R16">
+          <cell r="R16" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S16">
             <v>9</v>
           </cell>
         </row>
@@ -1056,23 +1249,23 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D17" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E17" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F17" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F17" t="str">
+          <cell r="G17" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="G17">
+          <cell r="H17">
             <v>50.18</v>
           </cell>
-          <cell r="H17" t="str">
+          <cell r="I17" t="str">
             <v>rock</v>
           </cell>
-          <cell r="I17" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J17" t="str">
             <v>None</v>
           </cell>
@@ -1083,10 +1276,10 @@
             <v>None</v>
           </cell>
           <cell r="M17" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N17" t="str">
-            <v>None</v>
+            <v>Guitar</v>
           </cell>
           <cell r="O17" t="str">
             <v>None</v>
@@ -1097,7 +1290,10 @@
           <cell r="Q17" t="str">
             <v>None</v>
           </cell>
-          <cell r="R17">
+          <cell r="R17" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S17">
             <v>9</v>
           </cell>
         </row>
@@ -1112,37 +1308,37 @@
             <v>Early Dylan</v>
           </cell>
           <cell r="D18" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E18" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F18" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F18" t="str">
+          <cell r="G18" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="G18">
+          <cell r="H18">
             <v>46.19</v>
           </cell>
-          <cell r="H18" t="str">
+          <cell r="I18" t="str">
             <v>Christian rock</v>
           </cell>
-          <cell r="I18" t="str">
+          <cell r="J18" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="J18" t="str">
+          <cell r="K18" t="str">
             <v>gospel</v>
           </cell>
-          <cell r="K18" t="str">
+          <cell r="L18" t="str">
             <v>funk</v>
           </cell>
-          <cell r="L18" t="str">
-            <v>None</v>
-          </cell>
           <cell r="M18" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N18" t="str">
-            <v>None</v>
+            <v>Guitar</v>
           </cell>
           <cell r="O18" t="str">
             <v>None</v>
@@ -1153,7 +1349,10 @@
           <cell r="Q18" t="str">
             <v>None</v>
           </cell>
-          <cell r="R18">
+          <cell r="R18" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S18">
             <v>9</v>
           </cell>
         </row>
@@ -1168,26 +1367,26 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D19" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E19" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F19" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F19" t="str">
+          <cell r="G19" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="G19">
+          <cell r="H19">
             <v>42.39</v>
           </cell>
-          <cell r="H19" t="str">
+          <cell r="I19" t="str">
             <v>Christian rock</v>
           </cell>
-          <cell r="I19" t="str">
+          <cell r="J19" t="str">
             <v>gospel</v>
           </cell>
-          <cell r="J19" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K19" t="str">
             <v>None</v>
           </cell>
@@ -1195,21 +1394,24 @@
             <v>None</v>
           </cell>
           <cell r="M19" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N19" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O19" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O19" t="str">
+          <cell r="P19" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P19" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q19" t="str">
             <v>None</v>
           </cell>
-          <cell r="R19">
+          <cell r="R19" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S19">
             <v>9</v>
           </cell>
         </row>
@@ -1224,26 +1426,26 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D20" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E20" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F20" t="str">
             <v>eight-track</v>
           </cell>
-          <cell r="F20" t="str">
+          <cell r="G20" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="G20">
+          <cell r="H20">
             <v>44.27</v>
           </cell>
-          <cell r="H20" t="str">
+          <cell r="I20" t="str">
             <v>Christian rock</v>
           </cell>
-          <cell r="I20" t="str">
+          <cell r="J20" t="str">
             <v>gospel</v>
           </cell>
-          <cell r="J20" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K20" t="str">
             <v>None</v>
           </cell>
@@ -1251,21 +1453,24 @@
             <v>None</v>
           </cell>
           <cell r="M20" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N20" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O20" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O20" t="str">
+          <cell r="P20" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P20" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q20" t="str">
             <v>None</v>
           </cell>
-          <cell r="R20">
+          <cell r="R20" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S20">
             <v>10</v>
           </cell>
         </row>
@@ -1280,48 +1485,51 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D21" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E21" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F21" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F21" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G21">
+          <cell r="G21" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H21">
             <v>41.39</v>
           </cell>
-          <cell r="H21" t="str">
+          <cell r="I21" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="I21" t="str">
+          <cell r="J21" t="str">
             <v>heartland rock</v>
           </cell>
-          <cell r="J21" t="str">
+          <cell r="K21" t="str">
             <v>reggae</v>
           </cell>
-          <cell r="K21" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L21" t="str">
             <v>None</v>
           </cell>
           <cell r="M21" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N21" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O21" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O21" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P21" t="str">
             <v>None</v>
           </cell>
           <cell r="Q21" t="str">
             <v>None</v>
           </cell>
-          <cell r="R21">
+          <cell r="R21" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S21">
             <v>8</v>
           </cell>
         </row>
@@ -1336,48 +1544,51 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D22" t="str">
-            <v>vinyl</v>
+            <v>comp</v>
           </cell>
           <cell r="E22" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F22" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F22" t="str">
+          <cell r="G22" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G22">
+          <cell r="H22">
             <v>46.24</v>
           </cell>
-          <cell r="H22" t="str">
+          <cell r="I22" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="I22" t="str">
+          <cell r="J22" t="str">
             <v>gospel</v>
           </cell>
-          <cell r="J22" t="str">
+          <cell r="K22" t="str">
             <v>pop</v>
           </cell>
-          <cell r="K22" t="str">
-            <v>None</v>
-          </cell>
           <cell r="L22" t="str">
             <v>None</v>
           </cell>
           <cell r="M22" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N22" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O22" t="str">
             <v>Keyboards</v>
           </cell>
-          <cell r="O22" t="str">
+          <cell r="P22" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P22" t="str">
+          <cell r="Q22" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="Q22" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="R22">
+          <cell r="R22" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S22">
             <v>10</v>
           </cell>
         </row>
@@ -1392,23 +1603,23 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D23" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E23" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F23" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F23" t="str">
+          <cell r="G23" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G23">
+          <cell r="H23">
             <v>35.18</v>
           </cell>
-          <cell r="H23" t="str">
+          <cell r="I23" t="str">
             <v>rock</v>
           </cell>
-          <cell r="I23" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J23" t="str">
             <v>None</v>
           </cell>
@@ -1419,21 +1630,24 @@
             <v>None</v>
           </cell>
           <cell r="M23" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N23" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O23" t="str">
             <v>Keyboards</v>
           </cell>
-          <cell r="O23" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P23" t="str">
             <v>None</v>
           </cell>
           <cell r="Q23" t="str">
             <v>None</v>
           </cell>
-          <cell r="R23">
+          <cell r="R23" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S23">
             <v>8</v>
           </cell>
         </row>
@@ -1448,23 +1662,23 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D24" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E24" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F24" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F24" t="str">
+          <cell r="G24" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G24">
+          <cell r="H24">
             <v>32.1</v>
           </cell>
-          <cell r="H24" t="str">
+          <cell r="I24" t="str">
             <v>rock</v>
           </cell>
-          <cell r="I24" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J24" t="str">
             <v>None</v>
           </cell>
@@ -1475,21 +1689,24 @@
             <v>None</v>
           </cell>
           <cell r="M24" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N24" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O24" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O24" t="str">
+          <cell r="P24" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P24" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q24" t="str">
             <v>None</v>
           </cell>
-          <cell r="R24">
+          <cell r="R24" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S24">
             <v>10</v>
           </cell>
         </row>
@@ -1504,23 +1721,23 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D25" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E25" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F25" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F25" t="str">
+          <cell r="G25" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G25">
+          <cell r="H25">
             <v>38.46</v>
           </cell>
-          <cell r="H25" t="str">
+          <cell r="I25" t="str">
             <v>rock</v>
           </cell>
-          <cell r="I25" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J25" t="str">
             <v>None</v>
           </cell>
@@ -1531,21 +1748,24 @@
             <v>None</v>
           </cell>
           <cell r="M25" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N25" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O25" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O25" t="str">
+          <cell r="P25" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P25" t="str">
+          <cell r="Q25" t="str">
             <v>twelve-string guitar</v>
           </cell>
-          <cell r="Q25" t="str">
+          <cell r="R25" t="str">
             <v>Hammond Organ</v>
           </cell>
-          <cell r="R25">
+          <cell r="S25">
             <v>10</v>
           </cell>
         </row>
@@ -1560,23 +1780,23 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D26" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E26" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F26" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F26" t="str">
+          <cell r="G26" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G26">
+          <cell r="H26">
             <v>38.46</v>
           </cell>
-          <cell r="H26" t="str">
+          <cell r="I26" t="str">
             <v>rock</v>
           </cell>
-          <cell r="I26" t="str">
-            <v>None</v>
-          </cell>
           <cell r="J26" t="str">
             <v>None</v>
           </cell>
@@ -1587,21 +1807,24 @@
             <v>None</v>
           </cell>
           <cell r="M26" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N26" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O26" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O26" t="str">
+          <cell r="P26" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P26" t="str">
+          <cell r="Q26" t="str">
             <v>Accordion</v>
           </cell>
-          <cell r="Q26" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="R26">
+          <cell r="R26" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S26">
             <v>10</v>
           </cell>
         </row>
@@ -1616,26 +1839,26 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D27" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E27" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F27" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F27" t="str">
+          <cell r="G27" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G27">
+          <cell r="H27">
             <v>55.31</v>
           </cell>
-          <cell r="H27" t="str">
+          <cell r="I27" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I27" t="str">
+          <cell r="J27" t="str">
             <v>blues</v>
           </cell>
-          <cell r="J27" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K27" t="str">
             <v>None</v>
           </cell>
@@ -1643,21 +1866,24 @@
             <v>None</v>
           </cell>
           <cell r="M27" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N27" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O27" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O27" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P27" t="str">
             <v>None</v>
           </cell>
           <cell r="Q27" t="str">
             <v>None</v>
           </cell>
-          <cell r="R27">
+          <cell r="R27" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S27">
             <v>13</v>
           </cell>
         </row>
@@ -1672,26 +1898,26 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D28" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E28" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F28" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F28" t="str">
+          <cell r="G28" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G28">
+          <cell r="H28">
             <v>43.51</v>
           </cell>
-          <cell r="H28" t="str">
+          <cell r="I28" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I28" t="str">
+          <cell r="J28" t="str">
             <v>blues</v>
           </cell>
-          <cell r="J28" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K28" t="str">
             <v>None</v>
           </cell>
@@ -1699,21 +1925,24 @@
             <v>None</v>
           </cell>
           <cell r="M28" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N28" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O28" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O28" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P28" t="str">
             <v>None</v>
           </cell>
           <cell r="Q28" t="str">
             <v>None</v>
           </cell>
-          <cell r="R28">
+          <cell r="R28" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S28">
             <v>10</v>
           </cell>
         </row>
@@ -1728,48 +1957,51 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D29" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E29" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F29" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F29" t="str">
+          <cell r="G29" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G29">
+          <cell r="H29">
             <v>72.5</v>
           </cell>
-          <cell r="H29" t="str">
+          <cell r="I29" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="I29" t="str">
+          <cell r="J29" t="str">
             <v>country</v>
           </cell>
-          <cell r="J29" t="str">
+          <cell r="K29" t="str">
             <v>blues</v>
           </cell>
-          <cell r="K29" t="str">
+          <cell r="L29" t="str">
             <v>rockabilly</v>
           </cell>
-          <cell r="L29" t="str">
-            <v>None</v>
-          </cell>
           <cell r="M29" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N29" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O29" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O29" t="str">
+          <cell r="P29" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P29" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q29" t="str">
             <v>None</v>
           </cell>
-          <cell r="R29">
+          <cell r="R29" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S29">
             <v>11</v>
           </cell>
         </row>
@@ -1784,48 +2016,51 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D30" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E30" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F30" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F30" t="str">
+          <cell r="G30" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G30">
+          <cell r="H30">
             <v>57.25</v>
           </cell>
-          <cell r="H30" t="str">
+          <cell r="I30" t="str">
             <v>roots rock</v>
           </cell>
-          <cell r="I30" t="str">
+          <cell r="J30" t="str">
             <v>americana</v>
           </cell>
-          <cell r="J30" t="str">
+          <cell r="K30" t="str">
             <v>blues</v>
           </cell>
-          <cell r="K30" t="str">
+          <cell r="L30" t="str">
             <v>country</v>
           </cell>
-          <cell r="L30" t="str">
+          <cell r="M30" t="str">
             <v>jazz</v>
           </cell>
-          <cell r="M30" t="str">
-            <v>Guitar</v>
-          </cell>
           <cell r="N30" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O30" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O30" t="str">
+          <cell r="P30" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P30" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q30" t="str">
             <v>None</v>
           </cell>
-          <cell r="R30">
+          <cell r="R30" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S30">
             <v>12</v>
           </cell>
         </row>
@@ -1840,48 +2075,51 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D31" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E31" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F31" t="str">
             <v>cassette</v>
           </cell>
-          <cell r="F31" t="str">
+          <cell r="G31" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G31">
+          <cell r="H31">
             <v>63.04</v>
           </cell>
-          <cell r="H31" t="str">
+          <cell r="I31" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="I31" t="str">
+          <cell r="J31" t="str">
             <v>americana</v>
           </cell>
-          <cell r="J31" t="str">
+          <cell r="K31" t="str">
             <v>blues</v>
           </cell>
-          <cell r="K31" t="str">
+          <cell r="L31" t="str">
             <v>rockabilly</v>
           </cell>
-          <cell r="L31" t="str">
-            <v>None</v>
-          </cell>
           <cell r="M31" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N31" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O31" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O31" t="str">
+          <cell r="P31" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="P31" t="str">
-            <v>None</v>
-          </cell>
           <cell r="Q31" t="str">
             <v>None</v>
           </cell>
-          <cell r="R31">
+          <cell r="R31" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S31">
             <v>10</v>
           </cell>
         </row>
@@ -1896,26 +2134,26 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D32" t="str">
-            <v>vinyl</v>
+            <v>comp</v>
           </cell>
           <cell r="E32" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F32" t="str">
             <v>CD</v>
           </cell>
-          <cell r="F32" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G32">
+          <cell r="G32" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="H32">
             <v>45.33</v>
           </cell>
-          <cell r="H32" t="str">
+          <cell r="I32" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="I32" t="str">
+          <cell r="J32" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="J32" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K32" t="str">
             <v>None</v>
           </cell>
@@ -1923,21 +2161,24 @@
             <v>None</v>
           </cell>
           <cell r="M32" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N32" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O32" t="str">
             <v>Keyboards</v>
           </cell>
-          <cell r="O32" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P32" t="str">
             <v>None</v>
           </cell>
           <cell r="Q32" t="str">
             <v>None</v>
           </cell>
-          <cell r="R32">
+          <cell r="R32" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S32">
             <v>10</v>
           </cell>
         </row>
@@ -1952,26 +2193,26 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D33" t="str">
-            <v>vinyl</v>
+            <v>og</v>
           </cell>
           <cell r="E33" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F33" t="str">
             <v>digital</v>
           </cell>
-          <cell r="F33" t="str">
+          <cell r="G33" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G33">
+          <cell r="H33">
             <v>68.31</v>
           </cell>
-          <cell r="H33" t="str">
+          <cell r="I33" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I33" t="str">
+          <cell r="J33" t="str">
             <v>folk rock</v>
           </cell>
-          <cell r="J33" t="str">
-            <v>None</v>
-          </cell>
           <cell r="K33" t="str">
             <v>None</v>
           </cell>
@@ -1979,21 +2220,24 @@
             <v>None</v>
           </cell>
           <cell r="M33" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N33" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O33" t="str">
             <v>Piano</v>
           </cell>
-          <cell r="O33" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P33" t="str">
             <v>None</v>
           </cell>
           <cell r="Q33" t="str">
             <v>None</v>
           </cell>
-          <cell r="R33">
+          <cell r="R33" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S33">
             <v>10</v>
           </cell>
         </row>
@@ -2008,56 +2252,55 @@
             <v>Late Dylan</v>
           </cell>
           <cell r="D34" t="str">
-            <v>vinyl</v>
+            <v>comp</v>
           </cell>
           <cell r="E34" t="str">
+            <v>vinyl</v>
+          </cell>
+          <cell r="F34" t="str">
             <v>digital</v>
           </cell>
-          <cell r="F34" t="str">
+          <cell r="G34" t="str">
             <v>CD</v>
           </cell>
-          <cell r="G34">
+          <cell r="H34">
             <v>70.33</v>
           </cell>
-          <cell r="H34" t="str">
+          <cell r="I34" t="str">
             <v>folk</v>
           </cell>
-          <cell r="I34" t="str">
+          <cell r="J34" t="str">
             <v>blues rock</v>
           </cell>
-          <cell r="J34" t="str">
+          <cell r="K34" t="str">
             <v>americana</v>
           </cell>
-          <cell r="K34" t="str">
+          <cell r="L34" t="str">
             <v>rhythm and blues</v>
           </cell>
-          <cell r="L34" t="str">
-            <v>None</v>
-          </cell>
           <cell r="M34" t="str">
-            <v>Guitar</v>
+            <v>None</v>
           </cell>
           <cell r="N34" t="str">
+            <v>Guitar</v>
+          </cell>
+          <cell r="O34" t="str">
             <v>Harmonica</v>
           </cell>
-          <cell r="O34" t="str">
-            <v>None</v>
-          </cell>
           <cell r="P34" t="str">
             <v>None</v>
           </cell>
           <cell r="Q34" t="str">
             <v>None</v>
           </cell>
-          <cell r="R34">
+          <cell r="R34" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="S34">
             <v>10</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2380,22 +2623,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFB4D0-3B72-4C96-A0A2-7C9281AC0BEC}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2408,11 +2651,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2420,31 +2666,33 @@
         <v>77</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>13</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>50.04</v>
       </c>
-      <c r="G2">
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>3.8492307692307692</v>
+      </c>
+      <c r="F2">
         <f>B2/C2</f>
         <v>5.9230769230769234</v>
       </c>
-      <c r="I2">
-        <f>AVERAGE(G2:G5)</f>
-        <v>6.2835470085470089</v>
-      </c>
-      <c r="K2">
-        <f>D2/C2</f>
-        <v>3.8492307692307692</v>
-      </c>
-      <c r="M2">
-        <f>AVERAGE(K2:K5)</f>
-        <v>4.9547521367521368</v>
-      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2452,31 +2700,35 @@
         <v>53</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>9</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>51.26</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="0">B3/C3</f>
+      <c r="E3">
+        <f>D3/C3</f>
+        <v>5.695555555555555</v>
+      </c>
+      <c r="F3">
+        <f>B3/C3</f>
         <v>5.8888888888888893</v>
       </c>
-      <c r="I3">
-        <f>AVERAGE(G6:G9)</f>
-        <v>6.1869318181818178</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="1">D3/C3</f>
-        <v>5.695555555555555</v>
-      </c>
-      <c r="M3">
-        <f>AVERAGE(K6:K9)</f>
-        <v>5.8554147727272721</v>
-      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE(F2:F5)</f>
+        <v>6.2835470085470089</v>
+      </c>
+      <c r="K3" s="8">
+        <f>AVERAGE(E2:E5)</f>
+        <v>4.9547521367521368</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2484,23 +2736,35 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>10</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>51.42</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="E4">
+        <f>D4/C4</f>
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="F4">
+        <f>B4/C4</f>
         <v>7.1</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>5.1420000000000003</v>
-      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6">
+        <f>AVERAGE(F6:F9)</f>
+        <v>6.1869318181818178</v>
+      </c>
+      <c r="K4" s="9">
+        <f>AVERAGE(E6:E9)</f>
+        <v>5.8554147727272721</v>
+      </c>
+      <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2508,23 +2772,23 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>9</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>46.19</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="E5">
+        <f>D5/C5</f>
+        <v>5.1322222222222216</v>
+      </c>
+      <c r="F5">
+        <f>B5/C5</f>
         <v>6.2222222222222223</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>5.1322222222222216</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2532,23 +2796,23 @@
         <v>51</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>8</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>41.39</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="E6">
+        <f>D6/C6</f>
+        <v>5.1737500000000001</v>
+      </c>
+      <c r="F6">
+        <f>B6/C6</f>
         <v>6.375</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>5.1737500000000001</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2556,23 +2820,23 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>10</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>46.24</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="E7">
+        <f>D7/C7</f>
+        <v>4.6240000000000006</v>
+      </c>
+      <c r="F7">
+        <f>B7/C7</f>
         <v>5.9</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>4.6240000000000006</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2580,23 +2844,23 @@
         <v>69</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>11</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>72.5</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f>D8/C8</f>
+        <v>6.5909090909090908</v>
+      </c>
+      <c r="F8">
+        <f>B8/C8</f>
         <v>6.2727272727272725</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>6.5909090909090908</v>
-      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2604,20 +2868,20 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$R, 18, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$S, 19, FALSE)</f>
         <v>10</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(A:A, [1]fulldata!$A:$G, 7, FALSE)</f>
+        <f>VLOOKUP(A:A, [1]fulldata!$A:$H, 8, FALSE)</f>
         <v>70.33</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f>D9/C9</f>
+        <v>7.0329999999999995</v>
+      </c>
+      <c r="F9">
+        <f>B9/C9</f>
         <v>6.2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>7.0329999999999995</v>
       </c>
     </row>
   </sheetData>
